--- a/public/preprocessing/@t_ORASUDI_ro.xlsx
+++ b/public/preprocessing/@t_ORASUDI_ro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18740</v>
+        <v>32764</v>
       </c>
       <c r="C2" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>hacker tu kak brarti account mu mau coba di hacked</t>
+          <t>idem</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['hacker', 'tu', 'kak', 'brarti', 'account', 'mu', 'mau', 'coba', 'di', 'hacked']</t>
+          <t>['idem']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['idem']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['hacker', 'tu', 'kak', 'brarti', 'account', 'mu', 'coba', 'hacked']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['hacker', 'tu', 'kak', 'brarti', 'account', 'mu', 'coba', 'hacked']</t>
+          <t>['idem']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['idem']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18741</v>
+        <v>32765</v>
       </c>
       <c r="C3" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>foint op pyu</t>
+          <t>filmnya teddy suryaatmadja lebih tepatnya</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['foint', 'op', 'pyu']</t>
+          <t>['filmnya', 'teddy', 'suryaatmadja', 'lebih', 'tepatnya']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['filmnya', 'teddy', 'suryaatmadja', 'lebih', 'tepatnya']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['foint', 'op', 'pyu']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['foint', 'op', 'pyu']</t>
+          <t>['filmnya', 'teddy', 'suryaatmadja', 'tepatnya']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['film', 'teddy', 'suryaatmadja', 'tepat']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18742</v>
+        <v>32766</v>
       </c>
       <c r="C4" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ini yg namanya perfect sempurna</t>
+          <t>yg ini boleh yg itu ngga</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['ini', 'yg', 'namanya', 'perfect', 'sempurna']</t>
+          <t>['yg', 'ini', 'boleh', 'yg', 'itu', 'ngga']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['yang', 'ini', 'boleh', 'yang', 'itu', 'tidak']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['namanya', 'perfect', 'sempurna']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['nama', 'perfect', 'sempurna']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18743</v>
+        <v>32767</v>
       </c>
       <c r="C5" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>zin waduuuu jangan doonggg</t>
+          <t>built different</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['zin', 'waduuuu', 'jangan', 'doonggg']</t>
+          <t>['built', 'different']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['built', 'different']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['zin', 'waduuuu', 'doonggg']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['zin', 'waduuuu', 'doonggg']</t>
+          <t>['built', 'different']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['built', 'different']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18744</v>
+        <v>32768</v>
       </c>
       <c r="C6" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>nanti pas tayang tungguin aja</t>
+          <t>sssttt diam dan dengarkan tubuhmu berkata apa mungkin itu obat terbaik</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['nanti', 'pas', 'tayang', 'tungguin', 'aja']</t>
+          <t>['sssttt', 'diam', 'dan', 'dengarkan', 'tubuhmu', 'berkata', 'apa', 'mungkin', 'itu', 'obat', 'terbaik']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['sssttt', 'diam', 'dan', 'dengarkan', 'tubuhmu', 'berkata', 'apa', 'mungkin', 'itu', 'obat', 'terbaik']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['pas', 'tayang', 'tungguin']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['pas', 'tayang', 'tungguin']</t>
+          <t>['sssttt', 'diam', 'dengarkan', 'tubuhmu', 'obat', 'terbaik']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['sssttt', 'diam', 'dengar', 'tubuh', 'obat', 'baik']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18745</v>
+        <v>32769</v>
       </c>
       <c r="C7" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">biasanya tanpa sengaja kita promoin korea melalui film makanan fashion baru tadi pagi liat program tv korea </t>
+          <t>hacker tu kak brarti account mu mau coba di hacked</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['biasanya', 'tanpa', 'sengaja', 'kita', 'promoin', 'korea', 'melalui', 'film', 'makanan', 'fashion', 'baru', 'tadi', 'pagi', 'liat', 'program', 'tv', 'korea']</t>
+          <t>['hacker', 'tu', 'kak', 'brarti', 'account', 'mu', 'mau', 'coba', 'di', 'hacked']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['hacker', 'itu', 'kak', 'berarti', 'account', 'mu', 'mau', 'coba', 'di', 'hacked']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['sengaja', 'promoin', 'korea', 'film', 'makanan', 'fashion', 'pagi', 'liat', 'program', 'tv', 'korea']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['sengaja', 'promoin', 'korea', 'film', 'makan', 'fashion', 'pagi', 'liat', 'program', 'tv', 'korea']</t>
+          <t>['hacker', 'kak', 'account', 'mu', 'coba', 'hacked']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['hacker', 'kak', 'account', 'mu', 'coba', 'hacked']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18746</v>
+        <v>32770</v>
       </c>
       <c r="C8" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>yg daendles tu bener ngga yah sedih dengernya</t>
+          <t>foint op pyu</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['yg', 'daendles', 'tu', 'bener', 'ngga', 'yah', 'sedih', 'dengernya']</t>
+          <t>['foint', 'op', 'pyu']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['foint', 'op', 'pyu']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['daendles', 'tu', 'bener', 'ngga', 'sedih', 'dengernya']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['daendles', 'tu', 'bener', 'ngga', 'sedih', 'dengernya']</t>
+          <t>['foint', 'op', 'pyu']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['foint', 'op', 'pyu']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18747</v>
+        <v>32771</v>
       </c>
       <c r="C9" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>uye aku malah baru libur dari nganggur masa libur lagi</t>
+          <t>ini yg namanya perfect sempurna</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['uye', 'aku', 'malah', 'baru', 'libur', 'dari', 'nganggur', 'masa', 'libur', 'lagi']</t>
+          <t>['ini', 'yg', 'namanya', 'perfect', 'sempurna']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['ini', 'yang', 'namanya', 'perfect', 'sempurna']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['uye', 'libur', 'nganggur', 'libur']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['uye', 'libur', 'nganggur', 'libur']</t>
+          <t>['namanya', 'perfect', 'sempurna']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['nama', 'perfect', 'sempurna']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18748</v>
+        <v>32772</v>
       </c>
       <c r="C10" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>wahh jengkol goreng sih mantep ada nya di daerah ngga jadi deh nanti kalo pada tau jadi laku</t>
+          <t>zin waduuuu jangan doonggg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['wahh', 'jengkol', 'goreng', 'sih', 'mantep', 'ada', 'nya', 'di', 'daerah', 'ngga', 'jadi', 'deh', 'nanti', 'kalo', 'pada', 'tau', 'jadi', 'laku']</t>
+          <t>['zin', 'waduuuu', 'jangan', 'doonggg']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['zin', 'waduuuu', 'jangan', 'doonggg']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['wahh', 'jengkol', 'goreng', 'mantep', 'daerah', 'ngga', 'deh', 'laku']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['wahh', 'jengkol', 'goreng', 'mantep', 'daerah', 'ngga', 'deh', 'laku']</t>
+          <t>['zin', 'waduuuu', 'doonggg']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['zin', 'waduuuu', 'doonggg']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18749</v>
+        <v>32773</v>
       </c>
       <c r="C11" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>matahari di atas kepala</t>
+          <t>nanti pas tayang tungguin aja</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['matahari', 'di', 'atas', 'kepala']</t>
+          <t>['nanti', 'pas', 'tayang', 'tungguin', 'aja']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['nanti', 'pas', 'tayang', 'tungguin', 'saja']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['matahari', 'kepala']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['matahari', 'kepala']</t>
+          <t>['pas', 'tayang', 'tungguin']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['pas', 'tayang', 'tungguin']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18750</v>
+        <v>32774</v>
       </c>
       <c r="C12" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ama pengen jengkol goreng</t>
+          <t xml:space="preserve">biasanya tanpa sengaja kita promoin korea melalui film makanan fashion baru tadi pagi liat program tv korea </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['ama', 'pengen', 'jengkol', 'goreng']</t>
+          <t>['biasanya', 'tanpa', 'sengaja', 'kita', 'promoin', 'korea', 'melalui', 'film', 'makanan', 'fashion', 'baru', 'tadi', 'pagi', 'liat', 'program', 'tv', 'korea']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['biasanya', 'tanpa', 'sengaja', 'kita', 'promoin', 'korea', 'melalui', 'film', 'makanan', 'fashion', 'baru', 'tadi', 'pagi', 'lihat', 'program', 'televisi', 'korea']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['ama', 'pengen', 'jengkol', 'goreng']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['ama', 'ken', 'jengkol', 'goreng']</t>
+          <t>['sengaja', 'promoin', 'korea', 'film', 'makanan', 'fashion', 'pagi', 'lihat', 'program', 'televisi', 'korea']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['sengaja', 'promoin', 'korea', 'film', 'makan', 'fashion', 'pagi', 'lihat', 'program', 'televisi', 'korea']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18751</v>
+        <v>32775</v>
       </c>
       <c r="C13" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>pengen motoran</t>
+          <t>yg daendles tu bener ngga yah sedih dengernya</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['pengen', 'motoran']</t>
+          <t>['yg', 'daendles', 'tu', 'bener', 'ngga', 'yah', 'sedih', 'dengernya']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['yang', 'daendles', 'itu', 'benar', 'tidak', 'ya', 'sedih', 'dengarnya']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['pengen', 'motoran']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['ken', 'motor']</t>
+          <t>['daendles', 'sedih', 'dengarnya']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['daendles', 'sedih', 'dengar']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18752</v>
+        <v>32776</v>
       </c>
       <c r="C14" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>pengen spedaan</t>
+          <t>uye aku malah baru libur dari nganggur masa libur lagi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['pengen', 'spedaan']</t>
+          <t>['uye', 'aku', 'malah', 'baru', 'libur', 'dari', 'nganggur', 'masa', 'libur', 'lagi']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['uye', 'aku', 'malah', 'baru', 'libur', 'dari', 'menganggur', 'masa', 'libur', 'lagi']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['pengen', 'spedaan']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['ken', 'spedaan']</t>
+          <t>['uye', 'libur', 'menganggur', 'libur']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['uye', 'libur', 'anggur', 'libur']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>18753</v>
+        <v>32777</v>
       </c>
       <c r="C15" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ayam nya se ekor</t>
+          <t>wahh jengkol goreng sih mantep ada nya di daerah ngga jadi deh nanti kalo pada tau jadi laku</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['ayam', 'nya', 'se', 'ekor']</t>
+          <t>['wahh', 'jengkol', 'goreng', 'sih', 'mantep', 'ada', 'nya', 'di', 'daerah', 'ngga', 'jadi', 'deh', 'nanti', 'kalo', 'pada', 'tau', 'jadi', 'laku']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['wah', 'jengkol', 'goreng', 'sih', 'mantap', 'ada', 'nya', 'di', 'daerah', 'tidak', 'jadi', 'deh', 'nanti', 'kalau', 'pada', 'tau', 'jadi', 'laku']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['ayam', 'ekor']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['ayam', 'ekor']</t>
+          <t>['jengkol', 'goreng', 'mantap', 'daerah', 'deh', 'laku']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['jengkol', 'goreng', 'mantap', 'daerah', 'deh', 'laku']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>18754</v>
+        <v>32778</v>
       </c>
       <c r="C16" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>knapa ada tai tainya sih sur</t>
+          <t>matahari di atas kepala</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['knapa', 'ada', 'tai', 'tainya', 'sih', 'sur']</t>
+          <t>['matahari', 'di', 'atas', 'kepala']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['matahari', 'di', 'atas', 'kepala']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['knapa', 'tai', 'tainya', 'sur']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['knapa', 'tai', 'tainya', 'sur']</t>
+          <t>['matahari', 'kepala']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['matahari', 'kepala']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>18755</v>
+        <v>32779</v>
       </c>
       <c r="C17" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>baru mau mulai diet uda laper abis mie ayam deh dietnya</t>
+          <t>ama pengen jengkol goreng</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['baru', 'mau', 'mulai', 'diet', 'uda', 'laper', 'abis', 'mie', 'ayam', 'deh', 'dietnya']</t>
+          <t>['ama', 'pengen', 'jengkol', 'goreng']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['sama', 'ingin', 'jengkol', 'goreng']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['diet', 'uda', 'laper', 'abis', 'mie', 'ayam', 'deh', 'dietnya']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['diet', 'uda', 'laper', 'abis', 'mie', 'ayam', 'deh', 'diet']</t>
+          <t>['jengkol', 'goreng']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['jengkol', 'goreng']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>18756</v>
+        <v>32780</v>
       </c>
       <c r="C18" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>naik kilo</t>
+          <t>pengen motoran</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['naik', 'kilo']</t>
+          <t>['pengen', 'motoran']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['ingin', 'motoran']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['kilo']</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['kilo']</t>
+          <t>['motoran']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['motor']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>18757</v>
+        <v>32781</v>
       </c>
       <c r="C19" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>si mieke uda pake sih</t>
+          <t>pengen spedaan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['si', 'mieke', 'uda', 'pake', 'sih']</t>
+          <t>['pengen', 'spedaan']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['ingin', 'spedaan']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['mieke', 'uda', 'pake']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['mieke', 'uda', 'pake']</t>
+          <t>['spedaan']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['spedaan']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18758</v>
+        <v>32782</v>
       </c>
       <c r="C20" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>bagus yak</t>
+          <t>ayam nya se ekor</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['bagus', 'yak']</t>
+          <t>['ayam', 'nya', 'se', 'ekor']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['ayam', 'nya', 'se', 'ekor']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['bagus', 'yak']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['bagus', 'yak']</t>
+          <t>['ayam', 'ekor']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['ayam', 'ekor']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>18759</v>
+        <v>32783</v>
       </c>
       <c r="C21" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>provider internet yg kuat dan bagus di wilayah pondok cabe apa ya pengen ganti nih kuciwak</t>
+          <t>knapa ada tai tainya sih sur</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['provider', 'internet', 'yg', 'kuat', 'dan', 'bagus', 'di', 'wilayah', 'pondok', 'cabe', 'apa', 'ya', 'pengen', 'ganti', 'nih', 'kuciwak']</t>
+          <t>['knapa', 'ada', 'tai', 'tainya', 'sih', 'sur']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kenapa', 'ada', 'tai', 'tainya', 'sih', 'sur']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['provider', 'internet', 'kuat', 'bagus', 'wilayah', 'pondok', 'cabe', 'pengen', 'ganti', 'kuciwak']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['provider', 'internet', 'kuat', 'bagus', 'wilayah', 'pondok', 'cabe', 'ken', 'ganti', 'kuciwak']</t>
+          <t>['tai', 'tainya', 'sur']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['tai', 'tainya', 'sur']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>18760</v>
+        <v>32784</v>
       </c>
       <c r="C22" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>spedaannya pada smangat ujan pun sikaattt</t>
+          <t>baru mau mulai diet uda laper abis mie ayam deh dietnya</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['spedaannya', 'pada', 'smangat', 'ujan', 'pun', 'sikaattt']</t>
+          <t>['baru', 'mau', 'mulai', 'diet', 'uda', 'laper', 'abis', 'mie', 'ayam', 'deh', 'dietnya']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['baru', 'mau', 'mulai', 'diet', 'sudah', 'lapar', 'habis', 'mie', 'ayam', 'deh', 'dietnya']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['spedaannya', 'smangat', 'ujan', 'sikaattt']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['spedaannya', 'smangat', 'ujan', 'sikaattt']</t>
+          <t>['diet', 'lapar', 'habis', 'mie', 'ayam', 'deh', 'dietnya']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['diet', 'lapar', 'habis', 'mie', 'ayam', 'deh', 'diet']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>18761</v>
+        <v>32785</v>
       </c>
       <c r="C23" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>fake</t>
+          <t>naik kilo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['fake']</t>
+          <t>['naik', 'kilo']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['naik', 'kilo']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['fake']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['fake']</t>
+          <t>['kilo']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['kilo']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>18762</v>
+        <v>32786</v>
       </c>
       <c r="C24" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>lagi bangun motor ni guys vak ngga tau knapa pandemi malah bgn motor tapi itu yg gw suka yah smoga lah</t>
+          <t>si mieke uda pake sih</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['lagi', 'bangun', 'motor', 'ni', 'guys', 'vak', 'ngga', 'tau', 'knapa', 'pandemi', 'malah', 'bgn', 'motor', 'tapi', 'itu', 'yg', 'gw', 'suka', 'yah', 'smoga', 'lah']</t>
+          <t>['si', 'mieke', 'uda', 'pake', 'sih']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['sih', 'mieke', 'sudah', 'pakai', 'sih']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['bangun', 'motor', 'ni', 'guys', 'vak', 'ngga', 'knapa', 'pandemi', 'bgn', 'motor', 'gw', 'suka', 'smoga']</t>
+          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['bangun', 'motor', 'ni', 'guys', 'vak', 'ngga', 'knapa', 'pandemi', 'bgn', 'motor', 'gw', 'suka', 'smoga']</t>
+          <t>['mieke', 'pakai']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['mieke', 'pakai']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>18763</v>
+        <v>32787</v>
       </c>
       <c r="C25" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>excuse</t>
+          <t>bagus yak</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['excuse']</t>
+          <t>['bagus', 'yak']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['bagus', 'ya']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['excuse']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['excuse']</t>
+          <t>['bagus']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['bagus']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>18764</v>
+        <v>32788</v>
       </c>
       <c r="C26" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ada anak kecil bgadang sambil nangis nonton film juara di netflix</t>
+          <t>provider internet yg kuat dan bagus di wilayah pondok cabe apa ya pengen ganti nih kuciwak</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['ada', 'anak', 'kecil', 'bgadang', 'sambil', 'nangis', 'nonton', 'film', 'juara', 'di', 'netflix']</t>
+          <t>['provider', 'internet', 'yg', 'kuat', 'dan', 'bagus', 'di', 'wilayah', 'pondok', 'cabe', 'apa', 'ya', 'pengen', 'ganti', 'nih', 'kuciwak']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['penyedia', 'internet', 'yang', 'kuat', 'dan', 'bagus', 'di', 'wilayah', 'pondok', 'cabe', 'apa', 'ya', 'ingin', 'ganti', 'nih', 'kuciwak']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['anak', 'bgadang', 'nangis', 'nonton', 'film', 'juara', 'netflix']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['anak', 'bgadang', 'nang', 'nonton', 'film', 'juara', 'netflix']</t>
+          <t>['penyedia', 'internet', 'kuat', 'bagus', 'wilayah', 'pondok', 'cabe', 'ganti', 'kuciwak']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['sedia', 'internet', 'kuat', 'bagus', 'wilayah', 'pondok', 'cabe', 'ganti', 'kuciwak']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>18765</v>
+        <v>32789</v>
       </c>
       <c r="C27" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>woooyyy uda mulai suting</t>
+          <t>spedaannya pada smangat ujan pun sikaattt</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['woooyyy', 'uda', 'mulai', 'suting']</t>
+          <t>['spedaannya', 'pada', 'smangat', 'ujan', 'pun', 'sikaattt']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['spedaannya', 'pada', 'semangat', 'hujan', 'pun', 'sikaattt']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['woooyyy', 'uda', 'suting']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['woooyyy', 'uda', 'suting']</t>
+          <t>['spedaannya', 'semangat', 'hujan', 'sikaattt']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['spedaannya', 'semangat', 'hujan', 'sikaattt']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>18766</v>
+        <v>32790</v>
       </c>
       <c r="C28" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>pengennya sih oldskull tapi takut mogok euy</t>
+          <t>fake</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['pengennya', 'sih', 'oldskull', 'tapi', 'takut', 'mogok', 'euy']</t>
+          <t>['fake']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['fake']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['pengennya', 'oldskull', 'takut', 'mogok', 'euy']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['ken', 'oldskull', 'takut', 'mogok', 'euy']</t>
+          <t>['fake']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['fake']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>18767</v>
+        <v>32791</v>
       </c>
       <c r="C29" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>maunya sih</t>
+          <t>lagi bangun motor ni guys vak ngga tau knapa pandemi malah bgn motor tapi itu yg gw suka yah smoga lah</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['maunya', 'sih']</t>
+          <t>['lagi', 'bangun', 'motor', 'ni', 'guys', 'vak', 'ngga', 'tau', 'knapa', 'pandemi', 'malah', 'bgn', 'motor', 'tapi', 'itu', 'yg', 'gw', 'suka', 'yah', 'smoga', 'lah']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['lagi', 'bangun', 'motor', 'nih', 'guys', 'vak', 'tidak', 'tau', 'kenapa', 'pandemi', 'malah', 'bangun', 'motor', 'tapi', 'itu', 'yang', 'gue', 'suka', 'ya', 'semoga', 'lah']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['maunya']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['mau']</t>
+          <t>['bangun', 'motor', 'guys', 'vak', 'pandemi', 'bangun', 'motor', 'gue', 'suka', 'semoga']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['bangun', 'motor', 'guys', 'vak', 'pandemi', 'bangun', 'motor', 'gue', 'suka', 'moga']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>18768</v>
+        <v>32792</v>
       </c>
       <c r="C30" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>letsgawww tabee</t>
+          <t>excuse</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['letsgawww', 'tabee']</t>
+          <t>['excuse']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['excuse']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['letsgawww', 'tabee']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['letsgawww', 'tabee']</t>
+          <t>['excuse']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['excuse']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>18769</v>
+        <v>32793</v>
       </c>
       <c r="C31" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>padahal udah hari sabtu masing enak ajah</t>
+          <t>ada anak kecil bgadang sambil nangis nonton film juara di netflix</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['padahal', 'udah', 'hari', 'sabtu', 'masing', 'enak', 'ajah']</t>
+          <t>['ada', 'anak', 'kecil', 'bgadang', 'sambil', 'nangis', 'nonton', 'film', 'juara', 'di', 'netflix']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['ada', 'anak', 'kecil', 'bgadang', 'sambil', 'menangis', 'menonton', 'film', 'juara', 'di', 'netflix']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['udah', 'sabtu', 'enak', 'ajah']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['udah', 'sabtu', 'enak', 'ajah']</t>
+          <t>['anak', 'bgadang', 'menangis', 'menonton', 'film', 'juara', 'netflix']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['anak', 'bgadang', 'menang', 'tonton', 'film', 'juara', 'netflix']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>18770</v>
+        <v>32794</v>
       </c>
       <c r="C32" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">watch party juara the movie sabtu januari jam nobar dari rumah masingmasing lewat all </t>
+          <t>woooyyy uda mulai suting</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['watch', 'party', 'juara', 'the', 'movie', 'sabtu', 'januari', 'jam', 'nobar', 'dari', 'rumah', 'masingmasing', 'lewat', 'all']</t>
+          <t>['woooyyy', 'uda', 'mulai', 'suting']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['woooyyy', 'sudah', 'mulai', 'suting']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['watch', 'party', 'juara', 'the', 'movie', 'sabtu', 'januari', 'jam', 'nobar', 'rumah', 'masingmasing', 'all']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['watch', 'party', 'juara', 'the', 'movie', 'sabtu', 'januari', 'jam', 'nobar', 'rumah', 'masingmasing', 'all']</t>
+          <t>['woooyyy', 'suting']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['woooyyy', 'suting']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18771</v>
+        <v>32795</v>
       </c>
       <c r="C33" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>wihhh mantep nih</t>
+          <t>pengennya sih oldskull tapi takut mogok euy</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['wihhh', 'mantep', 'nih']</t>
+          <t>['pengennya', 'sih', 'oldskull', 'tapi', 'takut', 'mogok', 'euy']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['inginnya', 'sih', 'oldskull', 'tapi', 'takut', 'mogok', 'euy']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['wihhh', 'mantep']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['wihhh', 'mantep']</t>
+          <t>['inginnya', 'oldskull', 'takut', 'mogok', 'euy']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['ingin', 'oldskull', 'takut', 'mogok', 'euy']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18772</v>
+        <v>32796</v>
       </c>
       <c r="C34" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>prok prok prok jadi apa</t>
+          <t>maunya sih</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['prok', 'prok', 'prok', 'jadi', 'apa']</t>
+          <t>['maunya', 'sih']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 5 outcomes&gt;</t>
+          <t>['maunya', 'sih']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['prok', 'prok', 'prok']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['prok', 'prok', 'prok']</t>
+          <t>['maunya']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['mau']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>18773</v>
+        <v>32797</v>
       </c>
       <c r="C35" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>bubur ayam buburnya di ganti pake havermut yg plain enak juga</t>
+          <t>letsgawww tabee</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['bubur', 'ayam', 'buburnya', 'di', 'ganti', 'pake', 'havermut', 'yg', 'plain', 'enak', 'juga']</t>
+          <t>['letsgawww', 'tabee']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['letsgawww', 'tabee']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['bubur', 'ayam', 'buburnya', 'ganti', 'pake', 'havermut', 'plain', 'enak']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['bubur', 'ayam', 'bubur', 'ganti', 'pake', 'havermut', 'plain', 'enak']</t>
+          <t>['letsgawww', 'tabee']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['letsgawww', 'tabee']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>18774</v>
+        <v>32798</v>
       </c>
       <c r="C36" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>pagi yg basah</t>
+          <t>padahal udah hari sabtu masing enak ajah</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['pagi', 'yg', 'basah']</t>
+          <t>['padahal', 'udah', 'hari', 'sabtu', 'masing', 'enak', 'ajah']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['padahal', 'sudah', 'hari', 'sabtu', 'masing', 'enak', 'saja']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['pagi', 'basah']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['pagi', 'basah']</t>
+          <t>['sabtu', 'enak']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['sabtu', 'enak']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>18775</v>
+        <v>32799</v>
       </c>
       <c r="C37" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>cernyata masih macet</t>
+          <t xml:space="preserve">watch party juara the movie sabtu januari jam nobar dari rumah masingmasing lewat all </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['cernyata', 'masih', 'macet']</t>
+          <t>['watch', 'party', 'juara', 'the', 'movie', 'sabtu', 'januari', 'jam', 'nobar', 'dari', 'rumah', 'masingmasing', 'lewat', 'all']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['watch', 'party', 'juara', 'the', 'film', 'sabtu', 'januari', 'jam', 'menonton, bareng', 'dari', 'rumah', 'masingmasing', 'lewat', 'all']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['cernyata', 'macet']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['cernyata', 'macet']</t>
+          <t>['watch', 'party', 'juara', 'the', 'film', 'sabtu', 'januari', 'jam', 'menonton, bareng', 'rumah', 'masingmasing', 'all']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['watch', 'party', 'juara', 'the', 'film', 'sabtu', 'januari', 'jam', 'tonton bareng', 'rumah', 'masingmasing', 'all']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>18776</v>
+        <v>32800</v>
       </c>
       <c r="C38" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>kisah gw mah nge blur semua cing</t>
+          <t>wihhh mantep nih</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['kisah', 'gw', 'mah', 'nge', 'blur', 'semua', 'cing']</t>
+          <t>['wihhh', 'mantep', 'nih']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['weh', 'mantap', 'nih']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['kisah', 'gw', 'mah', 'nge', 'blur', 'cing']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['kisah', 'gw', 'mah', 'nge', 'blur', 'cing']</t>
+          <t>['weh', 'mantap']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['weh', 'mantap']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>18777</v>
+        <v>32801</v>
       </c>
       <c r="C39" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>wahh seharian deh ni</t>
+          <t>prok prok prok jadi apa</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['wahh', 'seharian', 'deh', 'ni']</t>
+          <t>['prok', 'prok', 'prok', 'jadi', 'apa']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['prok', 'prok', 'prok', 'jadi', 'apa']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['wahh', 'seharian', 'deh', 'ni']</t>
+          <t>&lt;FreqDist with 3 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['wahh', 'hari', 'deh', 'ni']</t>
+          <t>['prok', 'prok', 'prok']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['prok', 'prok', 'prok']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>18778</v>
+        <v>32802</v>
       </c>
       <c r="C40" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>langsung puter genesis wah de bes emang ni mereka</t>
+          <t>bubur ayam buburnya di ganti pake havermut yg plain enak juga</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['langsung', 'puter', 'genesis', 'wah', 'de', 'bes', 'emang', 'ni', 'mereka']</t>
+          <t>['bubur', 'ayam', 'buburnya', 'di', 'ganti', 'pake', 'havermut', 'yg', 'plain', 'enak', 'juga']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['bubur', 'ayam', 'buburnya', 'di', 'ganti', 'pakai', 'havermut', 'yang', 'plain', 'enak', 'juga']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['langsung', 'puter', 'genesis', 'de', 'bes', 'emang', 'ni']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['langsung', 'puter', 'genesis', 'de', 'bes', 'emang', 'ni']</t>
+          <t>['bubur', 'ayam', 'buburnya', 'ganti', 'pakai', 'havermut', 'plain', 'enak']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['bubur', 'ayam', 'bubur', 'ganti', 'pakai', 'havermut', 'plain', 'enak']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>18779</v>
+        <v>32803</v>
       </c>
       <c r="C41" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>genesis donungss</t>
+          <t>pagi yg basah</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['genesis', 'donungss']</t>
+          <t>['pagi', 'yg', 'basah']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['pagi', 'yang', 'basah']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['genesis', 'donungss']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['genesis', 'donungss']</t>
+          <t>['pagi', 'basah']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['pagi', 'basah']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>18780</v>
+        <v>32804</v>
       </c>
       <c r="C42" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>cakep mana</t>
+          <t>cernyata masih macet</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['cakep', 'mana']</t>
+          <t>['cernyata', 'masih', 'macet']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['cernyata', 'masih', 'macet']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['cakep']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['cakep']</t>
+          <t>['cernyata', 'macet']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['cernyata', 'macet']</t>
         </is>
       </c>
     </row>
@@ -1951,30 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>18781</v>
+        <v>32805</v>
       </c>
       <c r="C43" t="n">
-        <v>229</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>379</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>kisah gw mah nge blur semua cing</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kisah', 'gw', 'mah', 'nge', 'blur', 'semua', 'cing']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['kisah', 'gue', 'adalah', 'nge', 'blur', 'semua', 'cing']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kisah', 'gue', 'nge', 'blur', 'cing']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['kisah', 'gue', 'nge', 'blur', 'cing']</t>
         </is>
       </c>
     </row>
@@ -1983,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18782</v>
+        <v>32806</v>
       </c>
       <c r="C44" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>uda dong kmarenn</t>
+          <t>wahh seharian deh ni</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['uda', 'dong', 'kmarenn']</t>
+          <t>['wahh', 'seharian', 'deh', 'ni']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['wah', 'seharian', 'deh', 'nih']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['uda', 'kmarenn']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['uda', 'kmarenn']</t>
+          <t>['seharian', 'deh']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['hari', 'deh']</t>
         </is>
       </c>
     </row>
@@ -2019,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18783</v>
+        <v>32807</v>
       </c>
       <c r="C45" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>masih tekatro ama kacamata ni es</t>
+          <t>langsung puter genesis wah de bes emang ni mereka</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['masih', 'tekatro', 'ama', 'kacamata', 'ni', 'es']</t>
+          <t>['langsung', 'puter', 'genesis', 'wah', 'de', 'bes', 'emang', 'ni', 'mereka']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['langsung', 'putar', 'genesis', 'wah', 'deh', 'bes', 'memang', 'nih', 'mereka']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['tekatro', 'ama', 'kacamata', 'ni', 'es']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['tekatro', 'ama', 'kacamata', 'ni', 'es']</t>
+          <t>['langsung', 'putar', 'genesis', 'deh', 'bes']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['langsung', 'putar', 'genesis', 'deh', 'bes']</t>
         </is>
       </c>
     </row>
@@ -2055,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>18784</v>
+        <v>32808</v>
       </c>
       <c r="C46" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>nyariin kacamata dong kemana bhangkhaayy</t>
+          <t>genesis donungss</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['nyariin', 'kacamata', 'dong', 'kemana', 'bhangkhaayy']</t>
+          <t>['genesis', 'donungss']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['genesis', 'donungss']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['nyariin', 'kacamata', 'kemana', 'bhangkhaayy']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['nyariin', 'kacamata', 'mana', 'bhangkhaayy']</t>
+          <t>['genesis', 'donungss']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['genesis', 'donungss']</t>
         </is>
       </c>
     </row>
@@ -2091,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18785</v>
+        <v>32809</v>
       </c>
       <c r="C47" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>tiba telegram jadi rame</t>
+          <t>cakep mana</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['tiba', 'telegram', 'jadi', 'rame']</t>
+          <t>['cakep', 'mana']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['cakap', 'mana']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['telegram', 'rame']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['telegram', 'rame']</t>
+          <t>['cakap']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['cakap']</t>
         </is>
       </c>
     </row>
@@ -2127,34 +2366,35 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>18786</v>
+        <v>32810</v>
       </c>
       <c r="C48" t="n">
-        <v>229</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>kriting beneran yah slamat kaka ari</t>
-        </is>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['kriting', 'beneran', 'yah', 'slamat', 'kaka', 'ari']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['kriting', 'beneran', 'slamat', 'kaka', 'ari']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['kriting', 'beneran', 'slamat', 'kaka', 'ari']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2163,34 +2403,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>18787</v>
+        <v>32811</v>
       </c>
       <c r="C49" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>nyari ban sepeda kemana yah</t>
+          <t>uda dong kmarenn</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['nyari', 'ban', 'sepeda', 'kemana', 'yah']</t>
+          <t>['uda', 'dong', 'kmarenn']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['sudah', 'dong', 'kmarenn']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['nyari', 'ban', 'sepeda', 'kemana']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['nyari', 'ban', 'sepeda', 'mana']</t>
+          <t>['kmarenn']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['kmarenn']</t>
         </is>
       </c>
     </row>
@@ -2199,34 +2444,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>18788</v>
+        <v>32812</v>
       </c>
       <c r="C50" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>skill</t>
+          <t>masih tekatro ama kacamata ni es</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['skill']</t>
+          <t>['masih', 'tekatro', 'ama', 'kacamata', 'ni', 'es']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['masih', 'tekatro', 'sama', 'kacamata', 'nih', 'es']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['skill']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['skill']</t>
+          <t>['tekatro', 'kacamata', 'es']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['tekatro', 'kacamata', 'es']</t>
         </is>
       </c>
     </row>
@@ -2235,34 +2485,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>18789</v>
+        <v>32813</v>
       </c>
       <c r="C51" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>komedi is in de blaaddd</t>
+          <t>nyariin kacamata dong kemana bhangkhaayy</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['komedi', 'is', 'in', 'de', 'blaaddd']</t>
+          <t>['nyariin', 'kacamata', 'dong', 'kemana', 'bhangkhaayy']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['mencarikan', 'kacamata', 'dong', 'kemana', 'bhangkhaayy']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['komedi', 'is', 'in', 'de', 'blaaddd']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['komedi', 'is', 'in', 'de', 'blaaddd']</t>
+          <t>['mencarikan', 'kacamata', 'kemana', 'bhangkhaayy']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['cari', 'kacamata', 'mana', 'bhangkhaayy']</t>
         </is>
       </c>
     </row>
@@ -2271,34 +2526,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>18790</v>
+        <v>32814</v>
       </c>
       <c r="C52" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>pay lonely lonely</t>
+          <t>tiba telegram jadi rame</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['pay', 'lonely', 'lonely']</t>
+          <t>['tiba', 'telegram', 'jadi', 'rame']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
+          <t>['tiba', 'telegram', 'jadi', 'ramai']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['pay', 'lonely', 'lonely']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['pay', 'lonely', 'lonely']</t>
+          <t>['telegram', 'ramai']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['telegram', 'ramai']</t>
         </is>
       </c>
     </row>
@@ -2307,34 +2567,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>18791</v>
+        <v>32815</v>
       </c>
       <c r="C53" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>kriting beneran yah slamat kaka ari</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['kriting', 'beneran', 'yah', 'slamat', 'kaka', 'ari']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kriting', 'benaran', 'ya', 'selamat', 'kakak', 'ari']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kriting', 'benaran', 'selamat', 'kakak', 'ari']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['kriting', 'benar', 'selamat', 'kakak', 'ari']</t>
         </is>
       </c>
     </row>
@@ -2343,34 +2608,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>18792</v>
+        <v>32816</v>
       </c>
       <c r="C54" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ya kann</t>
+          <t>nyari ban sepeda kemana yah</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['ya', 'kann']</t>
+          <t>['nyari', 'ban', 'sepeda', 'kemana', 'yah']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['mencari', 'ban', 'sepeda', 'kemana', 'ya']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['kann']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['kann']</t>
+          <t>['mencari', 'ban', 'sepeda', 'kemana']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['cari', 'ban', 'sepeda', 'mana']</t>
         </is>
       </c>
     </row>
@@ -2379,34 +2649,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>18793</v>
+        <v>32817</v>
       </c>
       <c r="C55" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>abis ini dongs</t>
+          <t>skill</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['abis', 'ini', 'dongs']</t>
+          <t>['skill']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['skill']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['abis', 'dongs']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['abis', 'dongs']</t>
+          <t>['skill']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['skill']</t>
         </is>
       </c>
     </row>
@@ -2415,34 +2690,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>18794</v>
+        <v>32818</v>
       </c>
       <c r="C56" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>malem nge bar bel</t>
+          <t>komedi is in de blaaddd</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['malem', 'nge', 'bar', 'bel']</t>
+          <t>['komedi', 'is', 'in', 'de', 'blaaddd']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['komedi', 'is', 'in', 'deh', 'blaaddd']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['malem', 'nge', 'bar', 'bel']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['malem', 'nge', 'bar', 'bel']</t>
+          <t>['komedi', 'is', 'in', 'deh', 'blaaddd']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['komedi', 'is', 'in', 'deh', 'blaaddd']</t>
         </is>
       </c>
     </row>
@@ -2451,34 +2731,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>18795</v>
+        <v>32819</v>
       </c>
       <c r="C57" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>pengennya sih nongkrong aja di rumah tapi di gji gimana yak</t>
+          <t>pay lonely lonely</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['pengennya', 'sih', 'nongkrong', 'aja', 'di', 'rumah', 'tapi', 'di', 'gji', 'gimana', 'yak']</t>
+          <t>['pay', 'lonely', 'lonely']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['pay', 'lonely', 'lonely']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['pengennya', 'nongkrong', 'rumah', 'gji', 'gimana', 'yak']</t>
+          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['ken', 'nongkrong', 'rumah', 'gji', 'gimana', 'yak']</t>
+          <t>['pay', 'lonely', 'lonely']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['pay', 'lonely', 'lonely']</t>
         </is>
       </c>
     </row>
@@ -2487,34 +2772,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>18796</v>
+        <v>32820</v>
       </c>
       <c r="C58" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>anda pasti divisi art</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['anda', 'pasti', 'divisi', 'art']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['divisi', 'art']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['divisi', 'art']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2523,34 +2813,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>18797</v>
+        <v>32821</v>
       </c>
       <c r="C59" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">masih soal sepedaan skg gw nemenin spupu gw yg spedaan dan hobby makan mienya ngga perna brenti dari gw </t>
+          <t>ya kann</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['masih', 'soal', 'sepedaan', 'skg', 'gw', 'nemenin', 'spupu', 'gw', 'yg', 'spedaan', 'dan', 'hobby', 'makan', 'mienya', 'ngga', 'perna', 'brenti', 'dari', 'gw']</t>
+          <t>['ya', 'kann']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['ya', 'kan']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['sepedaan', 'skg', 'gw', 'nemenin', 'spupu', 'gw', 'spedaan', 'hobby', 'makan', 'mienya', 'ngga', 'perna', 'brenti', 'gw']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['sepeda', 'skg', 'gw', 'nemenin', 'spupu', 'gw', 'spedaan', 'hobby', 'makan', 'mienya', 'ngga', 'perna', 'brenti', 'gw']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2559,34 +2854,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>18798</v>
+        <v>32822</v>
       </c>
       <c r="C60" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>yes betoouullll setelah th baru tau gw</t>
+          <t>abis ini dongs</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['yes', 'betoouullll', 'setelah', 'th', 'baru', 'tau', 'gw']</t>
+          <t>['abis', 'ini', 'dongs']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['habis', 'ini', 'dongs']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['yes', 'betoouullll', 'th', 'gw']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['yes', 'betoouullll', 'th', 'gw']</t>
+          <t>['habis', 'dongs']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['habis', 'dongs']</t>
         </is>
       </c>
     </row>
@@ -2595,34 +2895,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>18799</v>
+        <v>32823</v>
       </c>
       <c r="C61" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>cukurannya di pake buat cukur bulu ketek ama miom</t>
+          <t>malem nge bar bel</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['cukurannya', 'di', 'pake', 'buat', 'cukur', 'bulu', 'ketek', 'ama', 'miom']</t>
+          <t>['malem', 'nge', 'bar', 'bel']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['malam', 'nge', 'bar', 'bel']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['cukurannya', 'pake', 'cukur', 'bulu', 'ketek', 'ama', 'miom']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['cukur', 'pake', 'cukur', 'bulu', 'ketek', 'ama', 'miom']</t>
+          <t>['malam', 'nge', 'bar', 'bel']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['malam', 'nge', 'bar', 'bel']</t>
         </is>
       </c>
     </row>
@@ -2631,34 +2936,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>18800</v>
+        <v>32824</v>
       </c>
       <c r="C62" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>tau ngga beda percumah dgn percuma</t>
+          <t>pengennya sih nongkrong aja di rumah tapi di gji gimana yak</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['tau', 'ngga', 'beda', 'percumah', 'dgn', 'percuma']</t>
+          <t>['pengennya', 'sih', 'nongkrong', 'aja', 'di', 'rumah', 'tapi', 'di', 'gji', 'gimana', 'yak']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['inginnya', 'sih', 'nongkrong', 'saja', 'di', 'rumah', 'tapi', 'di', 'gji', 'bagaimana', 'ya']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['ngga', 'beda', 'percumah']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['ngga', 'beda', 'percumah']</t>
+          <t>['inginnya', 'nongkrong', 'rumah', 'gji']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['ingin', 'nongkrong', 'rumah', 'gji']</t>
         </is>
       </c>
     </row>
@@ -2667,34 +2977,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>18801</v>
+        <v>32825</v>
       </c>
       <c r="C63" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>nahh ini ayo pedaan ben biar matanya ngga ngantuk teruss</t>
+          <t>anda pasti divisi art</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['nahh', 'ini', 'ayo', 'pedaan', 'ben', 'biar', 'matanya', 'ngga', 'ngantuk', 'teruss']</t>
+          <t>['anda', 'pasti', 'divisi', 'art']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['anda', 'pasti', 'divisi', 'art']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['nahh', 'ayo', 'pedaan', 'ben', 'matanya', 'ngga', 'ngantuk', 'teruss']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['nahh', 'ayo', 'peda', 'ben', 'mata', 'ngga', 'ngantuk', 'teruss']</t>
+          <t>['divisi', 'art']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['divisi', 'art']</t>
         </is>
       </c>
     </row>
@@ -2703,34 +3018,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>18802</v>
+        <v>32826</v>
       </c>
       <c r="C64" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>klrg ada di liriknya hard to handle</t>
+          <t xml:space="preserve">masih soal sepedaan skg gw nemenin spupu gw yg spedaan dan hobby makan mienya ngga perna brenti dari gw </t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['klrg', 'ada', 'di', 'liriknya', 'hard', 'to', 'handle']</t>
+          <t>['masih', 'soal', 'sepedaan', 'skg', 'gw', 'nemenin', 'spupu', 'gw', 'yg', 'spedaan', 'dan', 'hobby', 'makan', 'mienya', 'ngga', 'perna', 'brenti', 'dari', 'gw']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['masih', 'soal', 'bersepeda', 'sekarang', 'gue', 'menemani', 'spupu', 'gue', 'yang', 'spedaan', 'dan', 'hobi', 'makan', 'mienya', 'tidak', 'pernah', 'brenti', 'dari', 'gue']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['klrg', 'liriknya', 'hard', 'to', 'handle']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['klrg', 'lirik', 'hard', 'to', 'handle']</t>
+          <t>['bersepeda', 'gue', 'menemani', 'spupu', 'gue', 'spedaan', 'hobi', 'makan', 'mienya', 'brenti', 'gue']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['sepeda', 'gue', 'tani', 'spupu', 'gue', 'spedaan', 'hobi', 'makan', 'mienya', 'brenti', 'gue']</t>
         </is>
       </c>
     </row>
@@ -2739,34 +3059,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>18803</v>
+        <v>32827</v>
       </c>
       <c r="C65" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>bihun cumi yak item</t>
+          <t>yes betoouullll setelah th baru tau gw</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['bihun', 'cumi', 'yak', 'item']</t>
+          <t>['yes', 'betoouullll', 'setelah', 'th', 'baru', 'tau', 'gw']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['iya', 'betoouullll', 'setelah', 'tahun', 'baru', 'tau', 'gue']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['bihun', 'cumi', 'yak', 'item']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['bihun', 'cumi', 'yak', 'item']</t>
+          <t>['iya', 'betoouullll', 'gue']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['iya', 'betoouullll', 'gue']</t>
         </is>
       </c>
     </row>
@@ -2775,34 +3100,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>18804</v>
+        <v>32828</v>
       </c>
       <c r="C66" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>cari seneng dong biar bahagia</t>
+          <t>cukurannya di pake buat cukur bulu ketek ama miom</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['cari', 'seneng', 'dong', 'biar', 'bahagia']</t>
+          <t>['cukurannya', 'di', 'pake', 'buat', 'cukur', 'bulu', 'ketek', 'ama', 'miom']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['cukurannya', 'di', 'pakai', 'buat', 'cukur', 'bulu', 'ketek', 'sama', 'miom']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['cari', 'seneng', 'bahagia']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['cari', 'neng', 'bahagia']</t>
+          <t>['cukurannya', 'pakai', 'cukur', 'bulu', 'ketek', 'miom']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['cukur', 'pakai', 'cukur', 'bulu', 'ketek', 'miom']</t>
         </is>
       </c>
     </row>
@@ -2811,34 +3141,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>18805</v>
+        <v>32829</v>
       </c>
       <c r="C67" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>kebalik dong uda ngga jaman bacot duluan nyusain yg lain</t>
+          <t>tau ngga beda percumah dgn percuma</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['kebalik', 'dong', 'uda', 'ngga', 'jaman', 'bacot', 'duluan', 'nyusain', 'yg', 'lain']</t>
+          <t>['tau', 'ngga', 'beda', 'percumah', 'dgn', 'percuma']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['tau', 'tidak', 'beda', 'percumah', 'dengan', 'percuma']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['kebalik', 'uda', 'ngga', 'jaman', 'bacot', 'duluan', 'nyusain']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['balik', 'uda', 'ngga', 'jaman', 'bacot', 'duluan', 'nyusain']</t>
+          <t>['beda', 'percumah']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['beda', 'percumah']</t>
         </is>
       </c>
     </row>
@@ -2847,34 +3182,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18806</v>
+        <v>32830</v>
       </c>
       <c r="C68" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>pake topi lagi ujan katanya jaket nanti kedinginan skrip uda bawa blon jgan naik motor ujan naik mobil aja am</t>
+          <t>nahh ini ayo pedaan ben biar matanya ngga ngantuk teruss</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['pake', 'topi', 'lagi', 'ujan', 'katanya', 'jaket', 'nanti', 'kedinginan', 'skrip', 'uda', 'bawa', 'blon', 'jgan', 'naik', 'motor', 'ujan', 'naik', 'mobil', 'aja', 'am']</t>
+          <t>['nahh', 'ini', 'ayo', 'pedaan', 'ben', 'biar', 'matanya', 'ngga', 'ngantuk', 'teruss']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['nah', 'ini', 'ayo', 'pedaan', 'ben', 'biar', 'matanya', 'tidak', 'mengantuk', 'terus']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['pake', 'topi', 'ujan', 'jaket', 'kedinginan', 'skrip', 'uda', 'bawa', 'blon', 'jgan', 'motor', 'ujan', 'mobil', 'am']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['pake', 'topi', 'ujan', 'jaket', 'dingin', 'skrip', 'uda', 'bawa', 'blon', 'jgan', 'motor', 'ujan', 'mobil', 'am']</t>
+          <t>['ayo', 'pedaan', 'ben', 'matanya', 'mengantuk']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['ayo', 'peda', 'ben', 'mata', 'antuk']</t>
         </is>
       </c>
     </row>
@@ -2883,30 +3223,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18807</v>
+        <v>32831</v>
       </c>
       <c r="C69" t="n">
-        <v>229</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>379</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>klrg ada di liriknya hard to handle</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['klrg', 'ada', 'di', 'liriknya', 'hard', 'to', 'handle']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['klrg', 'ada', 'di', 'liriknya', 'hard', 'to', 'handle']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['klrg', 'liriknya', 'hard', 'to', 'handle']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['klrg', 'lirik', 'hard', 'to', 'handle']</t>
         </is>
       </c>
     </row>
@@ -2915,34 +3264,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18808</v>
+        <v>32832</v>
       </c>
       <c r="C70" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>action speaks louder than words</t>
+          <t>bihun cumi yak item</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['action', 'speaks', 'louder', 'than', 'words']</t>
+          <t>['bihun', 'cumi', 'yak', 'item']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['bihun', 'cumi', 'ya', 'hitam']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['action', 'speaks', 'louder', 'than', 'words']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['action', 'speaks', 'louder', 'than', 'words']</t>
+          <t>['bihun', 'cumi', 'hitam']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['bihun', 'cumi', 'hitam']</t>
         </is>
       </c>
     </row>
@@ -2951,34 +3305,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>18809</v>
+        <v>32833</v>
       </c>
       <c r="C71" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt season finale with orasudiro jam malam gaaaass</t>
+          <t>cari seneng dong biar bahagia</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'season', 'finale', 'with', 'orasudiro', 'jam', 'malam', 'gaaaass']</t>
+          <t>['cari', 'seneng', 'dong', 'biar', 'bahagia']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['cari', 'senang', 'dong', 'biar', 'bahagia']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['season', 'finale', 'with', 'orasudiro', 'jam', 'malam', 'gaaaass']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['season', 'finale', 'with', 'orasudiro', 'jam', 'malam', 'gaaaass']</t>
+          <t>['cari', 'senang', 'bahagia']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['cari', 'senang', 'bahagia']</t>
         </is>
       </c>
     </row>
@@ -2987,34 +3346,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>18810</v>
+        <v>32834</v>
       </c>
       <c r="C72" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>kriting iyalahhh</t>
+          <t>kebalik dong uda ngga jaman bacot duluan nyusain yg lain</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['kriting', 'iyalahhh']</t>
+          <t>['kebalik', 'dong', 'uda', 'ngga', 'jaman', 'bacot', 'duluan', 'nyusain', 'yg', 'lain']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kebalik', 'dong', 'sudah', 'tidak', 'jaman', 'bacot', 'lebih, dahulu', 'nyusain', 'yang', 'lain']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['kriting', 'iyalahhh']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['kriting', 'iyalahhh']</t>
+          <t>['kebalik', 'jaman', 'bacot', 'lebih, dahulu', 'nyusain']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['balik', 'jaman', 'bacot', 'lebih dahulu', 'nyusain']</t>
         </is>
       </c>
     </row>
@@ -3023,34 +3387,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>18811</v>
+        <v>32835</v>
       </c>
       <c r="C73" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>kriting waktu aku umur bruce wilis masih jadi penyanyi ri</t>
+          <t>pake topi lagi ujan katanya jaket nanti kedinginan skrip uda bawa blon jgan naik motor ujan naik mobil aja am</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['kriting', 'waktu', 'aku', 'umur', 'bruce', 'wilis', 'masih', 'jadi', 'penyanyi', 'ri']</t>
+          <t>['pake', 'topi', 'lagi', 'ujan', 'katanya', 'jaket', 'nanti', 'kedinginan', 'skrip', 'uda', 'bawa', 'blon', 'jgan', 'naik', 'motor', 'ujan', 'naik', 'mobil', 'aja', 'am']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['pakai', 'topi', 'lagi', 'hujan', 'katanya', 'jaket', 'nanti', 'kedinginan', 'skrip', 'sudah', 'bawa', 'belum', 'jangan', 'naik', 'motor', 'hujan', 'naik', 'mobil', 'saja', 'am']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['kriting', 'umur', 'bruce', 'wilis', 'penyanyi', 'ri']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['kriting', 'umur', 'bruce', 'wilis', 'nyanyi', 'ri']</t>
+          <t>['pakai', 'topi', 'hujan', 'jaket', 'kedinginan', 'skrip', 'bawa', 'motor', 'hujan', 'mobil', 'am']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['pakai', 'topi', 'hujan', 'jaket', 'dingin', 'skrip', 'bawa', 'motor', 'hujan', 'mobil', 'am']</t>
         </is>
       </c>
     </row>
@@ -3059,34 +3428,35 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>18812</v>
+        <v>32836</v>
       </c>
       <c r="C74" t="n">
-        <v>229</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>kamu sunat dulu deh trus minta di beliin sepeda</t>
-        </is>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['kamu', 'sunat', 'dulu', 'deh', 'trus', 'minta', 'di', 'beliin', 'sepeda']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['sunat', 'deh', 'trus', 'beliin', 'sepeda']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['sunat', 'deh', 'trus', 'beliin', 'sepeda']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3095,34 +3465,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>18813</v>
+        <v>32837</v>
       </c>
       <c r="C75" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>pagi sih bangun keblakangnya yg lama gw mah</t>
+          <t>action speaks louder than words</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['pagi', 'sih', 'bangun', 'keblakangnya', 'yg', 'lama', 'gw', 'mah']</t>
+          <t>['action', 'speaks', 'louder', 'than', 'words']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['action', 'speaks', 'louder', 'tahan', 'kata']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['pagi', 'bangun', 'keblakangnya', 'gw', 'mah']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['pagi', 'bangun', 'keblakangnya', 'gw', 'mah']</t>
+          <t>['action', 'speaks', 'louder', 'tahan']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['action', 'speaks', 'louder', 'tahan']</t>
         </is>
       </c>
     </row>
@@ -3131,30 +3506,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>18814</v>
+        <v>32838</v>
       </c>
       <c r="C76" t="n">
-        <v>229</v>
-      </c>
-      <c r="D76" t="inlineStr"/>
+        <v>379</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>rt season finale with orasudiro jam malam gaaaass</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'season', 'finale', 'with', 'orasudiro', 'jam', 'malam', 'gaaaass']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'season', 'finale', 'dengan', 'orasudiro', 'jam', 'malam', 'gaaaass']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['season', 'finale', 'orasudiro', 'jam', 'malam', 'gaaaass']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['season', 'finale', 'orasudiro', 'jam', 'malam', 'gaaaass']</t>
         </is>
       </c>
     </row>
@@ -3163,34 +3547,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>18815</v>
+        <v>32839</v>
       </c>
       <c r="C77" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>pastih itumahhh</t>
+          <t>kriting iyalahhh</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['pastih', 'itumahhh']</t>
+          <t>['kriting', 'iyalahhh']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['kriting', 'iyalahhh']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['pastih', 'itumahhh']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['pastih', 'itumahhh']</t>
+          <t>['kriting', 'iyalahhh']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['kriting', 'iyalahhh']</t>
         </is>
       </c>
     </row>
@@ -3199,34 +3588,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>18816</v>
+        <v>32840</v>
       </c>
       <c r="C78" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>nah itu sebagaimana motor bobber sayah bannya besar pentilnya kecil</t>
+          <t>kriting waktu aku umur bruce wilis masih jadi penyanyi ri</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['nah', 'itu', 'sebagaimana', 'motor', 'bobber', 'sayah', 'bannya', 'besar', 'pentilnya', 'kecil']</t>
+          <t>['kriting', 'waktu', 'aku', 'umur', 'bruce', 'wilis', 'masih', 'jadi', 'penyanyi', 'ri']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['kriting', 'waktu', 'aku', 'umur', 'bruce', 'wilis', 'masih', 'jadi', 'penyanyi', 'ri']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['motor', 'bobber', 'sayah', 'bannya', 'pentilnya']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['motor', 'bobber', 'sayah', 'ban', 'pentil']</t>
+          <t>['kriting', 'umur', 'bruce', 'wilis', 'penyanyi', 'ri']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['kriting', 'umur', 'bruce', 'wilis', 'nyanyi', 'ri']</t>
         </is>
       </c>
     </row>
@@ -3235,34 +3629,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>18817</v>
+        <v>32841</v>
       </c>
       <c r="C79" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>pengen tapi kekecilan roadking ajah kecil buat sayahhh</t>
+          <t>kamu sunat dulu deh trus minta di beliin sepeda</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['pengen', 'tapi', 'kekecilan', 'roadking', 'ajah', 'kecil', 'buat', 'sayahhh']</t>
+          <t>['kamu', 'sunat', 'dulu', 'deh', 'trus', 'minta', 'di', 'beliin', 'sepeda']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kamu', 'sunat', 'dulu', 'deh', 'terus', 'meminta', 'di', 'belikan', 'sepeda']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['pengen', 'kekecilan', 'roadking', 'ajah', 'sayahhh']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['ken', 'kecil', 'roadking', 'ajah', 'sayahhh']</t>
+          <t>['sunat', 'deh', 'belikan', 'sepeda']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['sunat', 'deh', 'belikan', 'sepeda']</t>
         </is>
       </c>
     </row>
@@ -3271,34 +3670,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>18818</v>
+        <v>32842</v>
       </c>
       <c r="C80" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>let jeplin tetap terbaique</t>
+          <t>pagi sih bangun keblakangnya yg lama gw mah</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['let', 'jeplin', 'tetap', 'terbaique']</t>
+          <t>['pagi', 'sih', 'bangun', 'keblakangnya', 'yg', 'lama', 'gw', 'mah']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['pagi', 'sih', 'bangun', 'keblakangnya', 'yang', 'lama', 'gue', 'adalah']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['let', 'jeplin', 'terbaique']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['let', 'jeplin', 'terbaique']</t>
+          <t>['pagi', 'bangun', 'keblakangnya', 'gue']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['pagi', 'bangun', 'keblakangnya', 'gue']</t>
         </is>
       </c>
     </row>
@@ -3307,34 +3711,35 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>18819</v>
+        <v>32843</v>
       </c>
       <c r="C81" t="n">
-        <v>229</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>setelah tahunan gonta ganti part sepedah kemarin akhirnya gw nemuin apa yg bikin spedah kita enteng dan kenceng</t>
-        </is>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['setelah', 'tahunan', 'gonta', 'ganti', 'part', 'sepedah', 'kemarin', 'akhirnya', 'gw', 'nemuin', 'apa', 'yg', 'bikin', 'spedah', 'kita', 'enteng', 'dan', 'kenceng']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['tahunan', 'gonta', 'ganti', 'part', 'sepedah', 'kemarin', 'gw', 'nemuin', 'spedah', 'enteng', 'kenceng']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['tahun', 'gonta', 'ganti', 'part', 'dah', 'kemarin', 'gw', 'nemuin', 'spedah', 'enteng', 'kenceng']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3343,34 +3748,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18820</v>
+        <v>32844</v>
       </c>
       <c r="C82" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>mana yg bener</t>
+          <t>pastih itumahhh</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['mana', 'yg', 'bener']</t>
+          <t>['pastih', 'itumahhh']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['pastih', 'itumahhh']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['bener']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['bener']</t>
+          <t>['pastih', 'itumahhh']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['pastih', 'itumahhh']</t>
         </is>
       </c>
     </row>
@@ -3379,34 +3789,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18821</v>
+        <v>32845</v>
       </c>
       <c r="C83" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>pada gowes ngga</t>
+          <t>nah itu sebagaimana motor bobber sayah bannya besar pentilnya kecil</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['pada', 'gowes', 'ngga']</t>
+          <t>['nah', 'itu', 'sebagaimana', 'motor', 'bobber', 'sayah', 'bannya', 'besar', 'pentilnya', 'kecil']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['nah', 'itu', 'sebagaimana', 'motor', 'bobber', 'saya', 'bannya', 'besar', 'pentilnya', 'kecil']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['gowes', 'ngga']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['gowes', 'ngga']</t>
+          <t>['motor', 'bobber', 'bannya', 'pentilnya']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['motor', 'bobber', 'ban', 'pentil']</t>
         </is>
       </c>
     </row>
@@ -3415,34 +3830,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>18822</v>
+        <v>32846</v>
       </c>
       <c r="C84" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>blacklist makasi yah</t>
+          <t>pengen tapi kekecilan roadking ajah kecil buat sayahhh</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['blacklist', 'makasi', 'yah']</t>
+          <t>['pengen', 'tapi', 'kekecilan', 'roadking', 'ajah', 'kecil', 'buat', 'sayahhh']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['ingin', 'tapi', 'kekecilan', 'roadking', 'saja', 'kecil', 'buat', 'sayahhh']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['blacklist', 'makasi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['blacklist', 'makas']</t>
+          <t>['kekecilan', 'roadking', 'sayahhh']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['kecil', 'roadking', 'sayahhh']</t>
         </is>
       </c>
     </row>
@@ -3451,34 +3871,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>18823</v>
+        <v>32847</v>
       </c>
       <c r="C85" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>katanya katanya yaa dengerin siapa dong</t>
+          <t>let jeplin tetap terbaique</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['katanya', 'katanya', 'yaa', 'dengerin', 'siapa', 'dong']</t>
+          <t>['let', 'jeplin', 'tetap', 'terbaique']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['let', 'jeplin', 'tetap', 'terbaique']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['yaa', 'dengerin']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['yaa', 'dengerin']</t>
+          <t>['let', 'jeplin', 'terbaique']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['let', 'jeplin', 'terbaique']</t>
         </is>
       </c>
     </row>
@@ -3487,34 +3912,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>18824</v>
+        <v>32848</v>
       </c>
       <c r="C86" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>mau ngelarang tapi semua posting kesana ya susah juga</t>
+          <t>setelah tahunan gonta ganti part sepedah kemarin akhirnya gw nemuin apa yg bikin spedah kita enteng dan kenceng</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['mau', 'ngelarang', 'tapi', 'semua', 'posting', 'kesana', 'ya', 'susah', 'juga']</t>
+          <t>['setelah', 'tahunan', 'gonta', 'ganti', 'part', 'sepedah', 'kemarin', 'akhirnya', 'gw', 'nemuin', 'apa', 'yg', 'bikin', 'spedah', 'kita', 'enteng', 'dan', 'kenceng']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['setelah', 'tahunan', 'gonta', 'ganti', 'part', 'sepedah', 'kemarin', 'akhirnya', 'gue', 'menemui', 'apa', 'yang', 'bikin', 'spedah', 'kita', 'enteng', 'dan', 'kencang']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['ngelarang', 'posting', 'kesana', 'susah']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['ngelarang', 'posting', 'kesana', 'susah']</t>
+          <t>['tahunan', 'gonta', 'ganti', 'part', 'sepedah', 'kemarin', 'gue', 'menemui', 'spedah', 'enteng', 'kencang']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['tahun', 'gonta', 'ganti', 'part', 'dah', 'kemarin', 'gue', 'temu', 'spedah', 'enteng', 'kencang']</t>
         </is>
       </c>
     </row>
@@ -3523,34 +3953,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>18825</v>
+        <v>32849</v>
       </c>
       <c r="C87" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>happy natal buat teman yg merayakannya</t>
+          <t>mana yg bener</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['happy', 'natal', 'buat', 'teman', 'yg', 'merayakannya']</t>
+          <t>['mana', 'yg', 'bener']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['mana', 'yang', 'benar']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['happy', 'natal', 'teman', 'merayakannya']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['happy', 'natal', 'teman', 'raya']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3559,34 +3994,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>18826</v>
+        <v>32850</v>
       </c>
       <c r="C88" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>tipinya gede tapi satu rumah ngga ada yg nonton tivi</t>
+          <t>pada gowes ngga</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['tipinya', 'gede', 'tapi', 'satu', 'rumah', 'ngga', 'ada', 'yg', 'nonton', 'tivi']</t>
+          <t>['pada', 'gowes', 'ngga']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['pada', 'gowes', 'tidak']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['tipinya', 'gede', 'rumah', 'ngga', 'nonton', 'tivi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['tipi', 'gede', 'rumah', 'ngga', 'nonton', 'tivi']</t>
+          <t>['gowes']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['gowes']</t>
         </is>
       </c>
     </row>
@@ -3595,34 +4035,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>18827</v>
+        <v>32851</v>
       </c>
       <c r="C89" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>blacklist makasi yah</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['an']</t>
+          <t>['blacklist', 'makasi', 'yah']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['daftar, hitam', 'terima, kasih', 'ya']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['an']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['an']</t>
+          <t>['daftar, hitam', 'terima, kasih']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['daftar hitam', 'terima kasih']</t>
         </is>
       </c>
     </row>
@@ -3631,34 +4076,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>18828</v>
+        <v>32852</v>
       </c>
       <c r="C90" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ayo dong jan jadi ujan ngga jgn php in aku</t>
+          <t>katanya katanya yaa dengerin siapa dong</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['ayo', 'dong', 'jan', 'jadi', 'ujan', 'ngga', 'jgn', 'php', 'in', 'aku']</t>
+          <t>['katanya', 'katanya', 'yaa', 'dengerin', 'siapa', 'dong']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['katanya', 'katanya', 'ya', 'dengarkan', 'siapa', 'dong']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['ayo', 'jan', 'ujan', 'ngga', 'php', 'in']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['ayo', 'jan', 'ujan', 'ngga', 'php', 'in']</t>
+          <t>['dengarkan']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['dengar']</t>
         </is>
       </c>
     </row>
@@ -3667,34 +4117,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>18829</v>
+        <v>32853</v>
       </c>
       <c r="C91" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">kuncinya di </t>
+          <t>mau ngelarang tapi semua posting kesana ya susah juga</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['kuncinya', 'di']</t>
+          <t>['mau', 'ngelarang', 'tapi', 'semua', 'posting', 'kesana', 'ya', 'susah', 'juga']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['mau', 'melarang', 'tapi', 'semua', 'posting', 'kesana', 'ya', 'susah', 'juga']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['kuncinya']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['kunci']</t>
+          <t>['melarang', 'posting', 'kesana', 'susah']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['larang', 'posting', 'kesana', 'susah']</t>
         </is>
       </c>
     </row>
@@ -3703,34 +4158,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>18830</v>
+        <v>32854</v>
       </c>
       <c r="C92" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>nah gw demen nih vintage gitu</t>
+          <t>happy natal buat teman yg merayakannya</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['nah', 'gw', 'demen', 'nih', 'vintage', 'gitu']</t>
+          <t>['happy', 'natal', 'buat', 'teman', 'yg', 'merayakannya']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['happy', 'natal', 'buat', 'teman', 'yang', 'merayakannya']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['gw', 'demen', 'vintage', 'gitu']</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['gw', 'demen', 'vintage', 'gitu']</t>
+          <t>['happy', 'natal', 'teman', 'merayakannya']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['happy', 'natal', 'teman', 'raya']</t>
         </is>
       </c>
     </row>
@@ -3739,34 +4199,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>18831</v>
+        <v>32855</v>
       </c>
       <c r="C93" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ma aciii</t>
+          <t>tipinya gede tapi satu rumah ngga ada yg nonton tivi</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['ma', 'aciii']</t>
+          <t>['tipinya', 'gede', 'tapi', 'satu', 'rumah', 'ngga', 'ada', 'yg', 'nonton', 'tivi']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['televisinya', 'gede', 'tapi', 'satu', 'rumah', 'tidak', 'ada', 'yang', 'menonton', 'televisi']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['ma', 'aciii']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['ma', 'aciii']</t>
+          <t>['televisinya', 'gede', 'rumah', 'menonton', 'televisi']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['televisi', 'gede', 'rumah', 'tonton', 'televisi']</t>
         </is>
       </c>
     </row>
@@ -3775,34 +4240,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>18832</v>
+        <v>32856</v>
       </c>
       <c r="C94" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>want to buy</t>
+          <t>an</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['want', 'to', 'buy']</t>
+          <t>['an']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['an']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['want', 'to', 'buy']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['want', 'to', 'buy']</t>
+          <t>['an']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['an']</t>
         </is>
       </c>
     </row>
@@ -3811,34 +4281,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>18833</v>
+        <v>32857</v>
       </c>
       <c r="C95" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>gambar petenya jelek kurang sexy</t>
+          <t>ayo dong jan jadi ujan ngga jgn php in aku</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['gambar', 'petenya', 'jelek', 'kurang', 'sexy']</t>
+          <t>['ayo', 'dong', 'jan', 'jadi', 'ujan', 'ngga', 'jgn', 'php', 'in', 'aku']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['ayo', 'dong', 'jangan', 'jadi', 'hujan', 'tidak', 'jangan', 'php', 'in', 'aku']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['gambar', 'petenya', 'jelek', 'sexy']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['gambar', 'petenya', 'jelek', 'sexy']</t>
+          <t>['ayo', 'hujan', 'php', 'in']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['ayo', 'hujan', 'php', 'in']</t>
         </is>
       </c>
     </row>
@@ -3847,34 +4322,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>18834</v>
+        <v>32858</v>
       </c>
       <c r="C96" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>wtb nasi goreng pete yg petenya montok and sexy di daerah jaksel dimana yah ada ide</t>
+          <t xml:space="preserve">kuncinya di </t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['wtb', 'nasi', 'goreng', 'pete', 'yg', 'petenya', 'montok', 'and', 'sexy', 'di', 'daerah', 'jaksel', 'dimana', 'yah', 'ada', 'ide']</t>
+          <t>['kuncinya', 'di']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kuncinya', 'di']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['wtb', 'nasi', 'goreng', 'pete', 'petenya', 'montok', 'and', 'sexy', 'daerah', 'jaksel', 'dimana', 'ide']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['wtb', 'nasi', 'goreng', 'pete', 'petenya', 'montok', 'and', 'sexy', 'daerah', 'jaksel', 'mana', 'ide']</t>
+          <t>['kuncinya']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['kunci']</t>
         </is>
       </c>
     </row>
@@ -3883,34 +4363,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>18835</v>
+        <v>32859</v>
       </c>
       <c r="C97" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>lupa bawa kacamata sma aja ngga pake kacamata gaess</t>
+          <t>nah gw demen nih vintage gitu</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['lupa', 'bawa', 'kacamata', 'sma', 'aja', 'ngga', 'pake', 'kacamata', 'gaess']</t>
+          <t>['nah', 'gw', 'demen', 'nih', 'vintage', 'gitu']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['nah', 'gue', 'suka', 'nih', 'vintage', 'begitu']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['lupa', 'bawa', 'kacamata', 'sma', 'ngga', 'pake', 'kacamata', 'gaess']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['lupa', 'bawa', 'kacamata', 'sma', 'ngga', 'pake', 'kacamata', 'gaess']</t>
+          <t>['gue', 'suka', 'vintage']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['gue', 'suka', 'vintage']</t>
         </is>
       </c>
     </row>
@@ -3919,34 +4404,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>18836</v>
+        <v>32860</v>
       </c>
       <c r="C98" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>malamnet yg ikhlas yaa</t>
+          <t>ma aciii</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['malamnet', 'yg', 'ikhlas', 'yaa']</t>
+          <t>['ma', 'aciii']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['sama', 'aciii']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['malamnet', 'ikhlas', 'yaa']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['malamnet', 'ikhlas', 'yaa']</t>
+          <t>['aciii']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['aciii']</t>
         </is>
       </c>
     </row>
@@ -3955,34 +4445,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>18837</v>
+        <v>32861</v>
       </c>
       <c r="C99" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>belajar ikhlas</t>
+          <t>want to buy</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['belajar', 'ikhlas']</t>
+          <t>['want', 'to', 'buy']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['want', 'to', 'buy']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['belajar', 'ikhlas']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['ajar', 'ikhlas']</t>
+          <t>['want', 'to', 'buy']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['want', 'to', 'buy']</t>
         </is>
       </c>
     </row>
@@ -3991,34 +4486,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>18838</v>
+        <v>32862</v>
       </c>
       <c r="C100" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>nikmatnya spedaan itu panas ya kepanasan ujan ya keujanan</t>
+          <t>gambar petenya jelek kurang sexy</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['nikmatnya', 'spedaan', 'itu', 'panas', 'ya', 'kepanasan', 'ujan', 'ya', 'keujanan']</t>
+          <t>['gambar', 'petenya', 'jelek', 'kurang', 'sexy']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['gambar', 'petenya', 'jelek', 'kurang', 'sexy']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['nikmatnya', 'spedaan', 'panas', 'kepanasan', 'ujan', 'keujanan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['nikmat', 'spedaan', 'panas', 'panas', 'ujan', 'keujanan']</t>
+          <t>['gambar', 'petenya', 'jelek', 'sexy']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['gambar', 'petenya', 'jelek', 'sexy']</t>
         </is>
       </c>
     </row>
@@ -4027,34 +4527,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>18839</v>
+        <v>32863</v>
       </c>
       <c r="C101" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>looks can be deceiving ngerti ngga bahasa inggris tuh artinya botolnya air mineral dalemnya goyang jugaaa</t>
+          <t>wtb nasi goreng pete yg petenya montok and sexy di daerah jaksel dimana yah ada ide</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['looks', 'can', 'be', 'deceiving', 'ngerti', 'ngga', 'bahasa', 'inggris', 'tuh', 'artinya', 'botolnya', 'air', 'mineral', 'dalemnya', 'goyang', 'jugaaa']</t>
+          <t>['wtb', 'nasi', 'goreng', 'pete', 'yg', 'petenya', 'montok', 'and', 'sexy', 'di', 'daerah', 'jaksel', 'dimana', 'yah', 'ada', 'ide']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['wtb', 'nasi', 'goreng', 'petai', 'yang', 'petenya', 'montok', 'and', 'sexy', 'di', 'daerah', 'jaksel', 'dimana', 'ya', 'ada', 'ide']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['looks', 'can', 'be', 'deceiving', 'ngerti', 'ngga', 'bahasa', 'inggris', 'botolnya', 'air', 'mineral', 'dalemnya', 'goyang', 'jugaaa']</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['looks', 'can', 'be', 'deceiving', 'ngerti', 'ngga', 'bahasa', 'inggris', 'botol', 'air', 'mineral', 'dalem', 'goyang', 'jugaaa']</t>
+          <t>['wtb', 'nasi', 'goreng', 'petai', 'petenya', 'montok', 'and', 'sexy', 'daerah', 'jaksel', 'dimana', 'ide']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['wtb', 'nasi', 'goreng', 'petai', 'petenya', 'montok', 'and', 'sexy', 'daerah', 'jaksel', 'mana', 'ide']</t>
         </is>
       </c>
     </row>
